--- a/examples/eop_config/spreadsheets/template.xlsx
+++ b/examples/eop_config/spreadsheets/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FF2EB-8D43-4436-B595-55DABE5738D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0C161D-CC27-4E52-838B-A4DFCA557B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="4" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>District Cells</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -138,13 +135,16 @@
   </si>
   <si>
     <t>Disable  Drop Iteration Count</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -300,7 +300,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -675,13 +680,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,14 +1073,14 @@
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1086,14 +1091,14 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
@@ -1105,14 +1110,14 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1126,14 +1131,14 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
+      <c r="A4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1163,7 +1168,7 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1223,6 +1228,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1243,17 +1249,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1268,21 +1274,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1297,17 +1303,17 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1321,20 +1327,20 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1360,10 +1366,10 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1389,10 +1395,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1842,57 +1848,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1941,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54484E3E-C973-4989-9AC4-43AA9E0F41CE}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1956,57 +1962,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2042,8 +2048,8 @@
       <c r="H5" s="5"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -2091,8 +2097,8 @@
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2143,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3ACF89-2EB2-48B9-A884-A3492EA8DDFC}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2154,17 +2160,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2179,21 +2185,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2207,17 +2213,17 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2231,20 +2237,20 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2261,10 +2267,10 @@
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
@@ -2286,7 +2292,7 @@
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
